--- a/Mifos Automation Excels/Client/4654-DISB01JAN2015-EARLYREPAYMENTON-15JAN2015-RESCHDULE01MAR2015-INTEREST-ON-REMAINDERLOAN-24.xlsx
+++ b/Mifos Automation Excels/Client/4654-DISB01JAN2015-EARLYREPAYMENTON-15JAN2015-RESCHDULE01MAR2015-INTEREST-ON-REMAINDERLOAN-24.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="1" r:id="rId1"/>
@@ -638,8 +638,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -745,8 +745,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -774,14 +774,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,18 +895,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>37</v>
       </c>
@@ -944,15 +944,16 @@
       <c r="M1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13">
@@ -979,8 +980,9 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="12"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1018,15 +1020,16 @@
       <c r="M3" s="12">
         <v>888.49</v>
       </c>
-      <c r="N3" s="12">
-        <v>0</v>
-      </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="12"/>
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1062,15 +1065,16 @@
       <c r="M4" s="12">
         <v>0</v>
       </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12">
-        <v>941.21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12">
+        <v>941.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1106,15 +1110,16 @@
       <c r="M5" s="12">
         <v>0</v>
       </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12">
-        <v>941.21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="12"/>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12">
+        <v>941.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -1150,15 +1155,16 @@
       <c r="M6" s="12">
         <v>0</v>
       </c>
-      <c r="N6" s="12">
-        <v>0</v>
-      </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12">
-        <v>941.21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="12"/>
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12">
+        <v>941.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -1194,15 +1200,16 @@
       <c r="M7" s="12">
         <v>0</v>
       </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12">
-        <v>941.21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12">
+        <v>941.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -1238,15 +1245,16 @@
       <c r="M8" s="12">
         <v>0</v>
       </c>
-      <c r="N8" s="12">
-        <v>0</v>
-      </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12">
-        <v>941.21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="12"/>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12">
+        <v>941.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1282,15 +1290,16 @@
       <c r="M9" s="12">
         <v>0</v>
       </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12">
-        <v>941.21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="12"/>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12">
+        <v>941.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -1326,15 +1335,16 @@
       <c r="M10" s="12">
         <v>0</v>
       </c>
-      <c r="N10" s="12">
-        <v>0</v>
-      </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12">
-        <v>941.21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="12"/>
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12">
+        <v>941.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1370,15 +1380,16 @@
       <c r="M11" s="12">
         <v>0</v>
       </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12">
-        <v>941.21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="12"/>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12">
+        <v>941.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -1414,15 +1425,16 @@
       <c r="M12" s="12">
         <v>0</v>
       </c>
-      <c r="N12" s="12">
-        <v>0</v>
-      </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12">
-        <v>941.21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="12"/>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12">
+        <v>941.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1458,15 +1470,16 @@
       <c r="M13" s="12">
         <v>0</v>
       </c>
-      <c r="N13" s="12">
-        <v>0</v>
-      </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12">
-        <v>941.21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="12"/>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12">
+        <v>941.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1502,11 +1515,12 @@
       <c r="M14" s="12">
         <v>0</v>
       </c>
-      <c r="N14" s="12">
-        <v>0</v>
-      </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12">
+      <c r="N14" s="12"/>
+      <c r="O14" s="12">
+        <v>0</v>
+      </c>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12">
         <v>941.26</v>
       </c>
     </row>
